--- a/ocms/src/test/resources/TestData/SkillHistoricalReportData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillHistoricalReportData.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D7BA39-9669-4101-9D0C-4B5DB38D2E82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,8 +13,9 @@
     <sheet name="ShowInNewPageDateRange" sheetId="5" r:id="rId4"/>
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="Queries" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="19">
   <si>
     <t>Report Channel</t>
   </si>
@@ -59,11 +59,74 @@
   <si>
     <t>OCM Skill Historical Report</t>
   </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT CONVERT(decimal(10,2), (100 * (sum(isnull(CallsHandledWithinSLAThreshold,0)))/
+ (CAST(ISNULL((CASE WHEN SUM(isnull(PassedCalls,0))+sum(isnull(CallsAbandonedAfterSLAThreshold,0)) = 0 THEN 1
+ else SUM(PassedCalls)+sum(isnull(CallsAbandonedAfterSLAThreshold,0)) end),1) AS float)))) AS [Service Level],
+ SkillName as [Skill Name],sum([FlowIn]) AS [Flow In],sum([FlowOut]) AS [Flow Out],[SkillId] as [Skill ID],
+ [dbo].[SECONDSTOhhmmss](sum(TotalStaffedTIme)/nullif(sum(TotalStaffedAgents),0)) AS [Avg Staff Time],
+ [dbo].[SECONDSTOhhmmss](sum(TotalAbandTime)/nullif((sum(AbandCalls)+sum([AcdCalls])),0)) AS [Avg Aband Time],
+ sum([AbandCalls]) AS [Aband Calls],
+ [dbo].[SECONDSTOhhmmss](sum(SpeedOfAnswer)/nullif(sum([AcdCalls]),0)) AS [Avg Speed Answer],
+ [dbo].[SECONDSTOhhmmss](sum([TotalAfterCallTime])) AS [Total After Call Time],
+ [dbo].[SECONDSTOhhmmss](sum(TotalTalkTime)/nullif(sum([AcdCalls]),0)) AS [Avg Talk Time],
+ sum([AcdCalls])  AS [Total Interaction],
+ [dbo].[SECONDSTOhhmmss](sum(TotalAuxTime)) AS [Total Aux Time]
+ from [OCM_SkillHistoricalReport]  WITH (NOLOCK)
+ WHERE [ReportDateTime]&gt;='ReportBeforeDate' and [ReportDateTime]&lt;='ReportAfterDate' 
+ GROUP BY [SkillId],[SkillName]
+ ORDER BY [SkillName]</t>
+  </si>
+  <si>
+    <t>QueryDrillGridOne</t>
+  </si>
+  <si>
+    <t>SELECT CONVERT(decimal(10,2), (100 * (sum(isnull(CallsHandledWithinSLAThreshold,0)))/
+(CAST(ISNULL((CASE WHEN SUM(isnull(PassedCalls,0))+sum(isnull(CallsAbandonedAfterSLAThreshold,0)) = 0 THEN 1
+else SUM(PassedCalls)+sum(isnull(CallsAbandonedAfterSLAThreshold,0)) end),1) AS float))))  AS [Service Level],
+sum([FlowIn]) AS [Flow In],sum([FlowOut]) AS [Flow Out],
+[dbo].[SECONDSTOhhmmss](sum(TotalAbandTime)/nullif((sum(AbandCalls)+sum([AcdCalls])),0)) AS [Avg Aband Time],
+sum([AbandCalls]) AS [Aband Calls],
+Dateint AS [Date],[dbo].[SECONDSTOhhmmss](sum(SpeedOfAnswer)/nullif(sum([AcdCalls]),0)) AS [Avg Speed Answer], 
+[dbo].[SECONDSTOhhmmss](sum([TotalAfterCallTime])) AS [Total After Call Time],
+[dbo].[SECONDSTOhhmmss](sum(TotalTalkTime)/nullif(sum([AcdCalls]),0)) AS [Avg Talk Time],
+sum([AcdCalls]) AS [Total Interaction],
+[dbo].[SECONDSTOhhmmss](sum(TotalStaffedTIme)/nullif(sum(TotalStaffedAgents),0)) AS [Avg Staff],
+[dbo].[SECONDSTOhhmmss](sum(TotalAuxTime)) AS [Total Aux Time]
+from [OCM_SkillHistoricalReport] WITH (NOLOCK)
+WHERE [ReportDateTime]&gt;='ReportBeforeDate' and [ReportDateTime]&lt;='ReportAfterDate' and  SkillId like 'SkillIdCapturedFromUI'
+GROUP BY [Dateint],[SkillId],[SkillName] ORDER BY [Dateint] ASC</t>
+  </si>
+  <si>
+    <t>QueryDrillGridTwo</t>
+  </si>
+  <si>
+    <t>SELECT [ServiceLevel] AS [Service Level],[FlowIn] AS [Flow In],[FlowOut] AS [Flow Out],
+[dbo].[SECONDSTOhhmmss](TotalStaffedTIme/nullif(TotalStaffedAgents,0)) AS [Avg Staff Time],
+[dbo].[SECONDSTOhhmmss](TotalAbandTime/nullif((AbandCalls+[AcdCalls]),0)) AS [Avg Aband Time],
+[AbandCalls] AS [Aband Calls],
+[dbo].[SECONDSTOhhmmss](SpeedOfAnswer/nullif([AcdCalls],0)) AS [Avg Speed Answer],
+[dbo].[SECONDSTOhhmmss]([TotalAfterCallTime]) AS [Total After Call Time],
+[dbo].[SECONDSTOhhmmss](TotalTalkTime/nullif([AcdCalls],0)) AS [Avg Talk Time],
+[AcdCalls] AS [Total Interaction],[dbo].[SECONDSTOhhmmss](TotalAuxTime) AS [Total Aux Time],[Interval]
+FROM [OCM_SkillHistoricalReport] WITH (NOLOCK) WHERE [ReportDateTime]&gt;='ReportBeforeDate' AND [ReportDateTime]&lt;='ReportAfterDate' AND 
+[SkillId] like 'SkillIdCapturedFromUI' and [Interval] like '%' 
+ORDER BY [intvl] ASC</t>
+  </si>
+  <si>
+    <t>08-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>22-04-2020 00:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,9 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,22 +442,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -425,22 +492,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702A1EAB-F881-4B86-A3E3-081C46011C84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -480,22 +547,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176447-87D7-4EDC-896D-9D23F07DF512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -529,22 +596,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60BEED6-9E0D-4C15-B8C6-0F6124EFA13A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -584,22 +651,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -633,22 +700,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6DA6B1-CCD8-43EF-9A87-EEA417F7CC00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -680,6 +747,82 @@
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/SkillHistoricalReportData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillHistoricalReportData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="4875" yWindow="1590" windowWidth="15060" windowHeight="6495" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,11 @@
     <sheet name="ExportReport" sheetId="3" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
     <sheet name="Queries" sheetId="7" r:id="rId7"/>
+    <sheet name="AdvanceSearch" sheetId="8" r:id="rId8"/>
+    <sheet name="DrillDown" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="49">
   <si>
     <t>Report Channel</t>
   </si>
@@ -121,6 +124,96 @@
   </si>
   <si>
     <t>22-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>27-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>11-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>Skill ID</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>ChatSkill-1</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Skill Name</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Filter Date</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>01:30-02:00</t>
+  </si>
+  <si>
+    <t>10/05/2020</t>
   </si>
 </sst>
 </file>
@@ -156,13 +249,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,7 +318,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -258,7 +353,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -435,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -449,12 +544,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -493,21 +588,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +619,11 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -534,11 +633,54 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -551,15 +693,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -600,15 +742,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -638,11 +780,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -658,12 +800,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -704,15 +846,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -758,22 +900,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,4 +970,359 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/SkillHistoricalReportData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillHistoricalReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1590" windowWidth="15060" windowHeight="6495" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="6495" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DrillDown" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="A2:H2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,12 +120,6 @@
 ORDER BY [intvl] ASC</t>
   </si>
   <si>
-    <t>08-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>22-04-2020 00:00:00</t>
-  </si>
-  <si>
     <t>27-04-2020 00:00:00</t>
   </si>
   <si>
@@ -214,6 +208,12 @@
   </si>
   <si>
     <t>10/05/2020</t>
+  </si>
+  <si>
+    <t>20-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>27-05-2020 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -249,15 +249,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -620,7 +619,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -633,14 +632,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -653,14 +652,14 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
@@ -673,14 +672,14 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -780,11 +779,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -900,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,55 +914,55 @@
     <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1008,22 +1007,22 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1036,29 +1035,29 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1071,29 +1070,29 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1106,29 +1105,29 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1141,29 +1140,29 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1176,29 +1175,29 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1211,29 +1210,29 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1274,19 +1273,19 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1299,26 +1298,26 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/SkillHistoricalReportData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillHistoricalReportData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15060" windowHeight="6495" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="DrillDown" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A2:H2"/>
+  <oleSize ref="A1:K20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="54">
   <si>
     <t>Report Channel</t>
   </si>
@@ -214,6 +214,21 @@
   </si>
   <si>
     <t>27-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:01</t>
+  </si>
+  <si>
+    <t>10-05-2020 00:00:02</t>
   </si>
 </sst>
 </file>
@@ -529,7 +544,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,10 +602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,9 +615,10 @@
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +637,11 @@
       <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -633,7 +652,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -641,8 +660,11 @@
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -653,7 +675,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>18</v>
@@ -662,7 +684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -673,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>18</v>
@@ -741,7 +763,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +818,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +826,7 @@
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -831,8 +853,8 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -844,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,11 +905,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/SkillHistoricalReportData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillHistoricalReportData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E5363B-3759-4391-A92C-77038E8EB3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15270" windowHeight="6495" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,6 @@
     <sheet name="DrillDown" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="64">
   <si>
     <t>Report Channel</t>
   </si>
@@ -66,7 +66,109 @@
     <t>Query</t>
   </si>
   <si>
-    <t>SELECT CONVERT(decimal(10,2), (100 * (sum(isnull(CallsHandledWithinSLAThreshold,0)))/
+    <t>QueryDrillGridOne</t>
+  </si>
+  <si>
+    <t>QueryDrillGridTwo</t>
+  </si>
+  <si>
+    <t>27-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>11-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>Skill ID</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>ChatSkill-1</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Skill Name</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Filter Date</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>01:30-02:00</t>
+  </si>
+  <si>
+    <t>10/05/2020</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT CONVERT(decimal(10,2), (100 * (sum(isnull(CallsHandledWithinSLAThreshold,0)))/
  (CAST(ISNULL((CASE WHEN SUM(isnull(PassedCalls,0))+sum(isnull(CallsAbandonedAfterSLAThreshold,0)) = 0 THEN 1
  else SUM(PassedCalls)+sum(isnull(CallsAbandonedAfterSLAThreshold,0)) end),1) AS float)))) AS [Service Level],
  SkillName as [Skill Name],sum([FlowIn]) AS [Flow In],sum([FlowOut]) AS [Flow Out],[SkillId] as [Skill ID],
@@ -81,13 +183,11 @@
  from [OCM_SkillHistoricalReport]  WITH (NOLOCK)
  WHERE [ReportDateTime]&gt;='ReportBeforeDate' and [ReportDateTime]&lt;='ReportAfterDate' 
  GROUP BY [SkillId],[SkillName]
- ORDER BY [SkillName]</t>
-  </si>
-  <si>
-    <t>QueryDrillGridOne</t>
-  </si>
-  <si>
-    <t>SELECT CONVERT(decimal(10,2), (100 * (sum(isnull(CallsHandledWithinSLAThreshold,0)))/
+ ORDER BY [SkillName]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT CONVERT(decimal(10,2), (100 * (sum(isnull(CallsHandledWithinSLAThreshold,0)))/
 (CAST(ISNULL((CASE WHEN SUM(isnull(PassedCalls,0))+sum(isnull(CallsAbandonedAfterSLAThreshold,0)) = 0 THEN 1
 else SUM(PassedCalls)+sum(isnull(CallsAbandonedAfterSLAThreshold,0)) end),1) AS float))))  AS [Service Level],
 sum([FlowIn]) AS [Flow In],sum([FlowOut]) AS [Flow Out],
@@ -101,13 +201,11 @@
 [dbo].[SECONDSTOhhmmss](sum(TotalAuxTime)) AS [Total Aux Time]
 from [OCM_SkillHistoricalReport] WITH (NOLOCK)
 WHERE [ReportDateTime]&gt;='ReportBeforeDate' and [ReportDateTime]&lt;='ReportAfterDate' and  SkillId like 'SkillIdCapturedFromUI'
-GROUP BY [Dateint],[SkillId],[SkillName] ORDER BY [Dateint] ASC</t>
-  </si>
-  <si>
-    <t>QueryDrillGridTwo</t>
-  </si>
-  <si>
-    <t>SELECT [ServiceLevel] AS [Service Level],[FlowIn] AS [Flow In],[FlowOut] AS [Flow Out],
+GROUP BY [Dateint],[SkillId],[SkillName] ORDER BY [Dateint] ASC
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT [ServiceLevel] AS [Service Level],[FlowIn] AS [Flow In],[FlowOut] AS [Flow Out],
 [dbo].[SECONDSTOhhmmss](TotalStaffedTIme/nullif(TotalStaffedAgents,0)) AS [Avg Staff Time],
 [dbo].[SECONDSTOhhmmss](TotalAbandTime/nullif((AbandCalls+[AcdCalls]),0)) AS [Avg Aband Time],
 [AbandCalls] AS [Aband Calls],
@@ -117,128 +215,69 @@
 [AcdCalls] AS [Total Interaction],[dbo].[SECONDSTOhhmmss](TotalAuxTime) AS [Total Aux Time],[Interval]
 FROM [OCM_SkillHistoricalReport] WITH (NOLOCK) WHERE [ReportDateTime]&gt;='ReportBeforeDate' AND [ReportDateTime]&lt;='ReportAfterDate' AND 
 [SkillId] like 'SkillIdCapturedFromUI' and [Interval] like '%' 
-ORDER BY [intvl] ASC</t>
-  </si>
-  <si>
-    <t>27-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>11-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>Search String</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Advanced Search</t>
-  </si>
-  <si>
-    <t>Column Name</t>
-  </si>
-  <si>
-    <t>Column Type</t>
-  </si>
-  <si>
-    <t>Search String1</t>
-  </si>
-  <si>
-    <t>Search String2</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Is equal to</t>
-  </si>
-  <si>
-    <t>Skill ID</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Chat</t>
-  </si>
-  <si>
-    <t>ChatSkill-1</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Skill Name</t>
-  </si>
-  <si>
-    <t>Is not equal to</t>
-  </si>
-  <si>
-    <t>Contains</t>
-  </si>
-  <si>
-    <t>Does not contain</t>
-  </si>
-  <si>
-    <t>Starts with</t>
-  </si>
-  <si>
-    <t>Ends with</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Filter Date</t>
-  </si>
-  <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>01:30-02:00</t>
-  </si>
-  <si>
-    <t>10/05/2020</t>
-  </si>
-  <si>
-    <t>20-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>27-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>DeleteReason</t>
-  </si>
-  <si>
-    <t>10-05-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>10-05-2020 00:00:01</t>
-  </si>
-  <si>
-    <t>10-05-2020 00:00:02</t>
+ORDER BY [intvl] ASC
+</t>
+  </si>
+  <si>
+    <t>21-09-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>01-10-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>21-09-2020 00:00:01</t>
+  </si>
+  <si>
+    <t>21-09-2020 00:00:02</t>
+  </si>
+  <si>
+    <t>01-10-2020 00:00:01</t>
+  </si>
+  <si>
+    <t>01-10-2020 00:00:02</t>
+  </si>
+  <si>
+    <t>30-05-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>21-09-2020 00:00:03</t>
+  </si>
+  <si>
+    <t>21-09-2020 00:00:04</t>
+  </si>
+  <si>
+    <t>21-09-2020 00:00:05</t>
+  </si>
+  <si>
+    <t>01-10-2020 00:00:03</t>
+  </si>
+  <si>
+    <t>01-10-2020 00:00:04</t>
+  </si>
+  <si>
+    <t>01-10-2020 00:00:05</t>
+  </si>
+  <si>
+    <t>08-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>22-04-2020 00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -264,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -272,6 +311,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,26 +592,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -601,24 +649,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -652,19 +700,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,16 +723,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -695,34 +743,35 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -759,19 +808,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -802,10 +851,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -814,19 +863,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -854,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -863,19 +912,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -906,10 +955,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -918,25 +967,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.54296875" customWidth="1"/>
+    <col min="7" max="7" width="32.54296875" customWidth="1"/>
+    <col min="8" max="8" width="43.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -956,36 +1005,36 @@
         <v>11</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -994,25 +1043,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,25 +1078,25 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,31 +1107,31 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,31 +1142,31 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,31 +1177,31 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1163,31 +1212,31 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1198,31 +1247,31 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1233,52 +1282,52 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,22 +1344,22 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1321,25 +1370,25 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/SkillHistoricalReportData.xlsx
+++ b/ocms/src/test/resources/TestData/SkillHistoricalReportData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E5363B-3759-4391-A92C-77038E8EB3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ABBEAE-CC49-471C-86AE-3FAA301BD020}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="70">
   <si>
     <t>Report Channel</t>
   </si>
@@ -79,15 +79,6 @@
   </si>
   <si>
     <t>Search String</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>Advanced Search</t>
@@ -262,6 +253,33 @@
   </si>
   <si>
     <t>22-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>02-06-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>01-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>19-10-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>20-10-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>VoiceSkill1</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Skill11</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
 </sst>
 </file>
@@ -603,18 +621,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -650,23 +668,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,10 +704,10 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -700,19 +718,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -723,16 +741,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -743,13 +761,53 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -763,18 +821,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -812,18 +870,18 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -840,7 +898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -851,10 +909,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -870,15 +928,15 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -903,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -916,18 +974,18 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +1002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -955,10 +1013,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -970,22 +1028,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.54296875" customWidth="1"/>
-    <col min="7" max="7" width="32.54296875" customWidth="1"/>
-    <col min="8" max="8" width="43.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5546875" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" customWidth="1"/>
+    <col min="8" max="8" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1022,19 +1080,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1047,21 +1105,21 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,25 +1136,25 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,31 +1165,31 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1142,31 +1200,31 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1177,31 +1235,31 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1212,31 +1270,31 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,31 +1305,31 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1282,28 +1340,28 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1320,14 +1378,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,22 +1402,22 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1376,19 +1434,19 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
